--- a/datamining/final_data/sum2018.xlsx
+++ b/datamining/final_data/sum2018.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EUR2"/>
+  <dimension ref="A1:EUS2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18467,1685 +18467,1690 @@
       </c>
       <c r="EHT1" s="1" t="inlineStr">
         <is>
+          <t>인공지능</t>
+        </is>
+      </c>
+      <c r="EHU1" s="1" t="inlineStr">
+        <is>
           <t>기준점</t>
         </is>
       </c>
-      <c r="EHU1" s="1" t="inlineStr">
+      <c r="EHV1" s="1" t="inlineStr">
         <is>
           <t>상회</t>
         </is>
       </c>
-      <c r="EHV1" s="1" t="inlineStr">
+      <c r="EHW1" s="1" t="inlineStr">
         <is>
           <t>트렌드</t>
         </is>
       </c>
-      <c r="EHW1" s="1" t="inlineStr">
+      <c r="EHX1" s="1" t="inlineStr">
         <is>
           <t>하회</t>
         </is>
       </c>
-      <c r="EHX1" s="1" t="inlineStr">
+      <c r="EHY1" s="1" t="inlineStr">
         <is>
           <t>합의도</t>
         </is>
       </c>
-      <c r="EHY1" s="1" t="inlineStr">
+      <c r="EHZ1" s="1" t="inlineStr">
         <is>
           <t>합의</t>
         </is>
       </c>
-      <c r="EHZ1" s="1" t="inlineStr">
+      <c r="EIA1" s="1" t="inlineStr">
         <is>
           <t>분석후</t>
         </is>
       </c>
-      <c r="EIA1" s="1" t="inlineStr">
+      <c r="EIB1" s="1" t="inlineStr">
         <is>
           <t>처우</t>
         </is>
       </c>
-      <c r="EIB1" s="1" t="inlineStr">
+      <c r="EIC1" s="1" t="inlineStr">
         <is>
           <t>형태소</t>
         </is>
       </c>
-      <c r="EIC1" s="1" t="inlineStr">
+      <c r="EID1" s="1" t="inlineStr">
         <is>
           <t>인포메이션</t>
         </is>
       </c>
-      <c r="EID1" s="1" t="inlineStr">
+      <c r="EIE1" s="1" t="inlineStr">
         <is>
           <t>박사</t>
         </is>
       </c>
-      <c r="EIE1" s="1" t="inlineStr">
+      <c r="EIF1" s="1" t="inlineStr">
         <is>
           <t>빈도수</t>
         </is>
       </c>
-      <c r="EIF1" s="1" t="inlineStr">
+      <c r="EIG1" s="1" t="inlineStr">
         <is>
           <t>거론</t>
         </is>
       </c>
-      <c r="EIG1" s="1" t="inlineStr">
+      <c r="EIH1" s="1" t="inlineStr">
         <is>
           <t>상정</t>
         </is>
       </c>
-      <c r="EIH1" s="1" t="inlineStr">
+      <c r="EII1" s="1" t="inlineStr">
         <is>
           <t>예측변인</t>
         </is>
       </c>
-      <c r="EII1" s="1" t="inlineStr">
+      <c r="EIJ1" s="1" t="inlineStr">
         <is>
           <t>참가자</t>
         </is>
       </c>
-      <c r="EIJ1" s="1" t="inlineStr">
+      <c r="EIK1" s="1" t="inlineStr">
         <is>
           <t>우수자</t>
         </is>
       </c>
-      <c r="EIK1" s="1" t="inlineStr">
+      <c r="EIL1" s="1" t="inlineStr">
         <is>
           <t>입시</t>
         </is>
       </c>
-      <c r="EIL1" s="1" t="inlineStr">
+      <c r="EIM1" s="1" t="inlineStr">
         <is>
           <t>입학생</t>
         </is>
       </c>
-      <c r="EIM1" s="1" t="inlineStr">
+      <c r="EIN1" s="1" t="inlineStr">
         <is>
           <t>정시</t>
         </is>
       </c>
-      <c r="EIN1" s="1" t="inlineStr">
+      <c r="EIO1" s="1" t="inlineStr">
         <is>
           <t>충성도</t>
         </is>
       </c>
-      <c r="EIO1" s="1" t="inlineStr">
+      <c r="EIP1" s="1" t="inlineStr">
         <is>
           <t>학과</t>
         </is>
       </c>
-      <c r="EIP1" s="1" t="inlineStr">
+      <c r="EIQ1" s="1" t="inlineStr">
         <is>
           <t>서보드</t>
         </is>
       </c>
-      <c r="EIQ1" s="1" t="inlineStr">
+      <c r="EIR1" s="1" t="inlineStr">
         <is>
           <t>완성도</t>
         </is>
       </c>
-      <c r="EIR1" s="1" t="inlineStr">
+      <c r="EIS1" s="1" t="inlineStr">
         <is>
           <t>renzulli</t>
         </is>
       </c>
-      <c r="EIS1" s="1" t="inlineStr">
+      <c r="EIT1" s="1" t="inlineStr">
         <is>
           <t>사안</t>
         </is>
       </c>
-      <c r="EIT1" s="1" t="inlineStr">
+      <c r="EIU1" s="1" t="inlineStr">
         <is>
           <t>줄리</t>
         </is>
       </c>
-      <c r="EIU1" s="1" t="inlineStr">
+      <c r="EIV1" s="1" t="inlineStr">
         <is>
           <t>초등정보</t>
         </is>
       </c>
-      <c r="EIV1" s="1" t="inlineStr">
+      <c r="EIW1" s="1" t="inlineStr">
         <is>
           <t>숙제</t>
         </is>
       </c>
-      <c r="EIW1" s="1" t="inlineStr">
+      <c r="EIX1" s="1" t="inlineStr">
         <is>
           <t>과학쇼</t>
         </is>
       </c>
-      <c r="EIX1" s="1" t="inlineStr">
+      <c r="EIY1" s="1" t="inlineStr">
         <is>
           <t>마술</t>
         </is>
       </c>
-      <c r="EIY1" s="1" t="inlineStr">
+      <c r="EIZ1" s="1" t="inlineStr">
         <is>
           <t>오렌지</t>
         </is>
       </c>
-      <c r="EIZ1" s="1" t="inlineStr">
+      <c r="EJA1" s="1" t="inlineStr">
         <is>
           <t>패리티비트</t>
         </is>
       </c>
-      <c r="EJA1" s="1" t="inlineStr">
+      <c r="EJB1" s="1" t="inlineStr">
         <is>
           <t>자기장</t>
         </is>
       </c>
-      <c r="EJB1" s="1" t="inlineStr">
+      <c r="EJC1" s="1" t="inlineStr">
         <is>
           <t>자석</t>
         </is>
       </c>
-      <c r="EJC1" s="1" t="inlineStr">
+      <c r="EJD1" s="1" t="inlineStr">
         <is>
           <t>멘토</t>
         </is>
       </c>
-      <c r="EJD1" s="1" t="inlineStr">
+      <c r="EJE1" s="1" t="inlineStr">
         <is>
           <t>에듀</t>
         </is>
       </c>
-      <c r="EJE1" s="1" t="inlineStr">
+      <c r="EJF1" s="1" t="inlineStr">
         <is>
           <t>에듀톤</t>
         </is>
       </c>
-      <c r="EJF1" s="1" t="inlineStr">
+      <c r="EJG1" s="1" t="inlineStr">
         <is>
           <t>예선</t>
         </is>
       </c>
-      <c r="EJG1" s="1" t="inlineStr">
+      <c r="EJH1" s="1" t="inlineStr">
         <is>
           <t>일지</t>
         </is>
       </c>
-      <c r="EJH1" s="1" t="inlineStr">
+      <c r="EJI1" s="1" t="inlineStr">
         <is>
           <t>rossett</t>
         </is>
       </c>
-      <c r="EJI1" s="1" t="inlineStr">
+      <c r="EJJ1" s="1" t="inlineStr">
         <is>
           <t>건물</t>
         </is>
       </c>
-      <c r="EJJ1" s="1" t="inlineStr">
+      <c r="EJK1" s="1" t="inlineStr">
         <is>
           <t>공변인</t>
         </is>
       </c>
-      <c r="EJK1" s="1" t="inlineStr">
+      <c r="EJL1" s="1" t="inlineStr">
         <is>
           <t>삼각비</t>
         </is>
       </c>
-      <c r="EJL1" s="1" t="inlineStr">
+      <c r="EJM1" s="1" t="inlineStr">
         <is>
           <t>포트리스</t>
         </is>
       </c>
-      <c r="EJM1" s="1" t="inlineStr">
+      <c r="EJN1" s="1" t="inlineStr">
         <is>
           <t>다집단</t>
         </is>
       </c>
-      <c r="EJN1" s="1" t="inlineStr">
+      <c r="EJO1" s="1" t="inlineStr">
         <is>
           <t>서울교육종단</t>
         </is>
       </c>
-      <c r="EJO1" s="1" t="inlineStr">
+      <c r="EJP1" s="1" t="inlineStr">
         <is>
           <t>여가용</t>
         </is>
       </c>
-      <c r="EJP1" s="1" t="inlineStr">
+      <c r="EJQ1" s="1" t="inlineStr">
         <is>
           <t>자기주도학습</t>
         </is>
       </c>
-      <c r="EJQ1" s="1" t="inlineStr">
+      <c r="EJR1" s="1" t="inlineStr">
         <is>
           <t>종단연구</t>
         </is>
       </c>
-      <c r="EJR1" s="1" t="inlineStr">
+      <c r="EJS1" s="1" t="inlineStr">
         <is>
           <t>차년</t>
         </is>
       </c>
-      <c r="EJS1" s="1" t="inlineStr">
+      <c r="EJT1" s="1" t="inlineStr">
         <is>
           <t>dependencies</t>
         </is>
       </c>
-      <c r="EJT1" s="1" t="inlineStr">
+      <c r="EJU1" s="1" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="EJU1" s="1" t="inlineStr">
+      <c r="EJV1" s="1" t="inlineStr">
         <is>
           <t>network</t>
         </is>
       </c>
-      <c r="EJV1" s="1" t="inlineStr">
+      <c r="EJW1" s="1" t="inlineStr">
         <is>
           <t>neural</t>
         </is>
       </c>
-      <c r="EJW1" s="1" t="inlineStr">
+      <c r="EJX1" s="1" t="inlineStr">
         <is>
           <t>rare</t>
         </is>
       </c>
-      <c r="EJX1" s="1" t="inlineStr">
+      <c r="EJY1" s="1" t="inlineStr">
         <is>
           <t>recurrent</t>
         </is>
       </c>
-      <c r="EJY1" s="1" t="inlineStr">
+      <c r="EJZ1" s="1" t="inlineStr">
         <is>
           <t>subword</t>
         </is>
       </c>
-      <c r="EJZ1" s="1" t="inlineStr">
+      <c r="EKA1" s="1" t="inlineStr">
         <is>
           <t>term</t>
         </is>
       </c>
-      <c r="EKA1" s="1" t="inlineStr">
+      <c r="EKB1" s="1" t="inlineStr">
         <is>
           <t>검사기</t>
         </is>
       </c>
-      <c r="EKB1" s="1" t="inlineStr">
+      <c r="EKC1" s="1" t="inlineStr">
         <is>
           <t>단일어</t>
         </is>
       </c>
-      <c r="EKC1" s="1" t="inlineStr">
+      <c r="EKD1" s="1" t="inlineStr">
         <is>
           <t>맞춤법</t>
         </is>
       </c>
-      <c r="EKD1" s="1" t="inlineStr">
+      <c r="EKE1" s="1" t="inlineStr">
         <is>
           <t>코퍼스</t>
         </is>
       </c>
-      <c r="EKE1" s="1" t="inlineStr">
+      <c r="EKF1" s="1" t="inlineStr">
         <is>
           <t>희소</t>
         </is>
       </c>
-      <c r="EKF1" s="1" t="inlineStr">
+      <c r="EKG1" s="1" t="inlineStr">
         <is>
           <t>브랜드</t>
         </is>
       </c>
-      <c r="EKG1" s="1" t="inlineStr">
+      <c r="EKH1" s="1" t="inlineStr">
         <is>
           <t>자국</t>
         </is>
       </c>
-      <c r="EKH1" s="1" t="inlineStr">
+      <c r="EKI1" s="1" t="inlineStr">
         <is>
           <t>장학사</t>
         </is>
       </c>
-      <c r="EKI1" s="1" t="inlineStr">
+      <c r="EKJ1" s="1" t="inlineStr">
         <is>
           <t>주년</t>
         </is>
       </c>
-      <c r="EKJ1" s="1" t="inlineStr">
+      <c r="EKK1" s="1" t="inlineStr">
         <is>
           <t>주무관</t>
         </is>
       </c>
-      <c r="EKK1" s="1" t="inlineStr">
+      <c r="EKL1" s="1" t="inlineStr">
         <is>
           <t>초청</t>
         </is>
       </c>
-      <c r="EKL1" s="1" t="inlineStr">
+      <c r="EKM1" s="1" t="inlineStr">
         <is>
           <t>협력국</t>
         </is>
       </c>
-      <c r="EKM1" s="1" t="inlineStr">
+      <c r="EKN1" s="1" t="inlineStr">
         <is>
           <t>개국</t>
         </is>
       </c>
-      <c r="EKN1" s="1" t="inlineStr">
+      <c r="EKO1" s="1" t="inlineStr">
         <is>
           <t>선형</t>
         </is>
       </c>
-      <c r="EKO1" s="1" t="inlineStr">
+      <c r="EKP1" s="1" t="inlineStr">
         <is>
           <t>소용돌이</t>
         </is>
       </c>
-      <c r="EKP1" s="1" t="inlineStr">
+      <c r="EKQ1" s="1" t="inlineStr">
         <is>
           <t>예외</t>
         </is>
       </c>
-      <c r="EKQ1" s="1" t="inlineStr">
+      <c r="EKR1" s="1" t="inlineStr">
         <is>
           <t>주역</t>
         </is>
       </c>
-      <c r="EKR1" s="1" t="inlineStr">
+      <c r="EKS1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="EKS1" s="1" t="inlineStr">
+      <c r="EKT1" s="1" t="inlineStr">
         <is>
           <t>제주</t>
         </is>
       </c>
-      <c r="EKT1" s="1" t="inlineStr">
+      <c r="EKU1" s="1" t="inlineStr">
         <is>
           <t>컴퓨터교육</t>
         </is>
       </c>
-      <c r="EKU1" s="1" t="inlineStr">
+      <c r="EKV1" s="1" t="inlineStr">
         <is>
           <t>다년</t>
         </is>
       </c>
-      <c r="EKV1" s="1" t="inlineStr">
+      <c r="EKW1" s="1" t="inlineStr">
         <is>
           <t>디자</t>
         </is>
       </c>
-      <c r="EKW1" s="1" t="inlineStr">
+      <c r="EKX1" s="1" t="inlineStr">
         <is>
           <t>발상</t>
         </is>
       </c>
-      <c r="EKX1" s="1" t="inlineStr">
+      <c r="EKY1" s="1" t="inlineStr">
         <is>
           <t>코스</t>
         </is>
       </c>
-      <c r="EKY1" s="1" t="inlineStr">
+      <c r="EKZ1" s="1" t="inlineStr">
         <is>
           <t>사물인터넷</t>
         </is>
       </c>
-      <c r="EKZ1" s="1" t="inlineStr">
+      <c r="ELA1" s="1" t="inlineStr">
         <is>
           <t>윷놀이</t>
         </is>
       </c>
-      <c r="ELA1" s="1" t="inlineStr">
+      <c r="ELB1" s="1" t="inlineStr">
         <is>
           <t>획기적</t>
         </is>
       </c>
-      <c r="ELB1" s="1" t="inlineStr">
+      <c r="ELC1" s="1" t="inlineStr">
         <is>
           <t>중다회</t>
         </is>
       </c>
-      <c r="ELC1" s="1" t="inlineStr">
+      <c r="ELD1" s="1" t="inlineStr">
         <is>
           <t>tests</t>
         </is>
       </c>
-      <c r="ELD1" s="1" t="inlineStr">
+      <c r="ELE1" s="1" t="inlineStr">
         <is>
           <t>경제혁신센터</t>
         </is>
       </c>
-      <c r="ELE1" s="1" t="inlineStr">
+      <c r="ELF1" s="1" t="inlineStr">
         <is>
           <t>청년</t>
         </is>
       </c>
-      <c r="ELF1" s="1" t="inlineStr">
+      <c r="ELG1" s="1" t="inlineStr">
         <is>
           <t>관통</t>
         </is>
       </c>
-      <c r="ELG1" s="1" t="inlineStr">
+      <c r="ELH1" s="1" t="inlineStr">
         <is>
           <t>재정의</t>
         </is>
       </c>
-      <c r="ELH1" s="1" t="inlineStr">
+      <c r="ELI1" s="1" t="inlineStr">
         <is>
           <t>합성식</t>
         </is>
       </c>
-      <c r="ELI1" s="1" t="inlineStr">
+      <c r="ELJ1" s="1" t="inlineStr">
         <is>
           <t>공분산</t>
         </is>
       </c>
-      <c r="ELJ1" s="1" t="inlineStr">
+      <c r="ELK1" s="1" t="inlineStr">
         <is>
           <t>햄스터</t>
         </is>
       </c>
-      <c r="ELK1" s="1" t="inlineStr">
+      <c r="ELL1" s="1" t="inlineStr">
         <is>
           <t>미침</t>
         </is>
       </c>
-      <c r="ELL1" s="1" t="inlineStr">
+      <c r="ELM1" s="1" t="inlineStr">
         <is>
           <t>cad</t>
         </is>
       </c>
-      <c r="ELM1" s="1" t="inlineStr">
+      <c r="ELN1" s="1" t="inlineStr">
         <is>
           <t>거시</t>
         </is>
       </c>
-      <c r="ELN1" s="1" t="inlineStr">
+      <c r="ELO1" s="1" t="inlineStr">
         <is>
           <t>메이커</t>
         </is>
       </c>
-      <c r="ELO1" s="1" t="inlineStr">
+      <c r="ELP1" s="1" t="inlineStr">
         <is>
           <t>부피</t>
         </is>
       </c>
-      <c r="ELP1" s="1" t="inlineStr">
+      <c r="ELQ1" s="1" t="inlineStr">
         <is>
           <t>스페이스</t>
         </is>
       </c>
-      <c r="ELQ1" s="1" t="inlineStr">
+      <c r="ELR1" s="1" t="inlineStr">
         <is>
           <t>연계주의</t>
         </is>
       </c>
-      <c r="ELR1" s="1" t="inlineStr">
+      <c r="ELS1" s="1" t="inlineStr">
         <is>
           <t>재현</t>
         </is>
       </c>
-      <c r="ELS1" s="1" t="inlineStr">
+      <c r="ELT1" s="1" t="inlineStr">
         <is>
           <t>증명</t>
         </is>
       </c>
-      <c r="ELT1" s="1" t="inlineStr">
+      <c r="ELU1" s="1" t="inlineStr">
         <is>
           <t>학습내용</t>
         </is>
       </c>
-      <c r="ELU1" s="1" t="inlineStr">
+      <c r="ELV1" s="1" t="inlineStr">
         <is>
           <t>assessment</t>
         </is>
       </c>
-      <c r="ELV1" s="1" t="inlineStr">
+      <c r="ELW1" s="1" t="inlineStr">
         <is>
           <t>hlm</t>
         </is>
       </c>
-      <c r="ELW1" s="1" t="inlineStr">
+      <c r="ELX1" s="1" t="inlineStr">
         <is>
           <t>international</t>
         </is>
       </c>
-      <c r="ELX1" s="1" t="inlineStr">
+      <c r="ELY1" s="1" t="inlineStr">
         <is>
           <t>programme</t>
         </is>
       </c>
-      <c r="ELY1" s="1" t="inlineStr">
+      <c r="ELZ1" s="1" t="inlineStr">
         <is>
           <t>student</t>
         </is>
       </c>
-      <c r="ELZ1" s="1" t="inlineStr">
+      <c r="EMA1" s="1" t="inlineStr">
         <is>
           <t>다층</t>
         </is>
       </c>
-      <c r="EMA1" s="1" t="inlineStr">
+      <c r="EMB1" s="1" t="inlineStr">
         <is>
           <t>선형모</t>
         </is>
       </c>
-      <c r="EMB1" s="1" t="inlineStr">
+      <c r="EMC1" s="1" t="inlineStr">
         <is>
           <t>그전</t>
         </is>
       </c>
-      <c r="EMC1" s="1" t="inlineStr">
+      <c r="EMD1" s="1" t="inlineStr">
         <is>
           <t>자의식</t>
         </is>
       </c>
-      <c r="EMD1" s="1" t="inlineStr">
+      <c r="EME1" s="1" t="inlineStr">
         <is>
           <t>딥러닝</t>
         </is>
       </c>
-      <c r="EME1" s="1" t="inlineStr">
+      <c r="EMF1" s="1" t="inlineStr">
         <is>
           <t>학습흥미</t>
         </is>
       </c>
-      <c r="EMF1" s="1" t="inlineStr">
+      <c r="EMG1" s="1" t="inlineStr">
         <is>
           <t>인지력</t>
         </is>
       </c>
-      <c r="EMG1" s="1" t="inlineStr">
+      <c r="EMH1" s="1" t="inlineStr">
         <is>
           <t>현시대</t>
         </is>
       </c>
-      <c r="EMH1" s="1" t="inlineStr">
+      <c r="EMI1" s="1" t="inlineStr">
         <is>
           <t>소득계층</t>
         </is>
       </c>
-      <c r="EMI1" s="1" t="inlineStr">
+      <c r="EMJ1" s="1" t="inlineStr">
         <is>
           <t>읍면</t>
         </is>
       </c>
-      <c r="EMJ1" s="1" t="inlineStr">
+      <c r="EMK1" s="1" t="inlineStr">
         <is>
           <t>coding</t>
         </is>
       </c>
-      <c r="EMK1" s="1" t="inlineStr">
+      <c r="EML1" s="1" t="inlineStr">
         <is>
           <t>history</t>
         </is>
       </c>
-      <c r="EML1" s="1" t="inlineStr">
+      <c r="EMM1" s="1" t="inlineStr">
         <is>
           <t>hvc</t>
         </is>
       </c>
-      <c r="EMM1" s="1" t="inlineStr">
+      <c r="EMN1" s="1" t="inlineStr">
         <is>
           <t>vr</t>
         </is>
       </c>
-      <c r="EMN1" s="1" t="inlineStr">
+      <c r="EMO1" s="1" t="inlineStr">
         <is>
           <t>성숙도</t>
         </is>
       </c>
-      <c r="EMO1" s="1" t="inlineStr">
+      <c r="EMP1" s="1" t="inlineStr">
         <is>
           <t>저해</t>
         </is>
       </c>
-      <c r="EMP1" s="1" t="inlineStr">
+      <c r="EMQ1" s="1" t="inlineStr">
         <is>
           <t>촉진요인</t>
         </is>
       </c>
-      <c r="EMQ1" s="1" t="inlineStr">
+      <c r="EMR1" s="1" t="inlineStr">
         <is>
           <t>객체지향</t>
         </is>
       </c>
-      <c r="EMR1" s="1" t="inlineStr">
+      <c r="EMS1" s="1" t="inlineStr">
         <is>
           <t>교과과정</t>
         </is>
       </c>
-      <c r="EMS1" s="1" t="inlineStr">
+      <c r="EMT1" s="1" t="inlineStr">
         <is>
           <t>기억</t>
         </is>
       </c>
-      <c r="EMT1" s="1" t="inlineStr">
+      <c r="EMU1" s="1" t="inlineStr">
         <is>
           <t>편입</t>
         </is>
       </c>
-      <c r="EMU1" s="1" t="inlineStr">
+      <c r="EMV1" s="1" t="inlineStr">
         <is>
           <t>교훈</t>
         </is>
       </c>
-      <c r="EMV1" s="1" t="inlineStr">
+      <c r="EMW1" s="1" t="inlineStr">
         <is>
           <t>검사결과</t>
         </is>
       </c>
-      <c r="EMW1" s="1" t="inlineStr">
+      <c r="EMX1" s="1" t="inlineStr">
         <is>
           <t>우려성</t>
         </is>
       </c>
-      <c r="EMX1" s="1" t="inlineStr">
+      <c r="EMY1" s="1" t="inlineStr">
         <is>
           <t>교과내용</t>
         </is>
       </c>
-      <c r="EMY1" s="1" t="inlineStr">
+      <c r="EMZ1" s="1" t="inlineStr">
         <is>
           <t>영어교</t>
         </is>
       </c>
-      <c r="EMZ1" s="1" t="inlineStr">
+      <c r="ENA1" s="1" t="inlineStr">
         <is>
           <t>유사점</t>
         </is>
       </c>
-      <c r="ENA1" s="1" t="inlineStr">
+      <c r="ENB1" s="1" t="inlineStr">
         <is>
           <t>포용</t>
         </is>
       </c>
-      <c r="ENB1" s="1" t="inlineStr">
+      <c r="ENC1" s="1" t="inlineStr">
         <is>
           <t>kaie</t>
         </is>
       </c>
-      <c r="ENC1" s="1" t="inlineStr">
+      <c r="END1" s="1" t="inlineStr">
         <is>
           <t>예절</t>
         </is>
       </c>
-      <c r="END1" s="1" t="inlineStr">
+      <c r="ENE1" s="1" t="inlineStr">
         <is>
           <t>차기</t>
         </is>
       </c>
-      <c r="ENE1" s="1" t="inlineStr">
+      <c r="ENF1" s="1" t="inlineStr">
         <is>
           <t>시간이상</t>
         </is>
       </c>
-      <c r="ENF1" s="1" t="inlineStr">
+      <c r="ENG1" s="1" t="inlineStr">
         <is>
           <t>계획서</t>
         </is>
       </c>
-      <c r="ENG1" s="1" t="inlineStr">
+      <c r="ENH1" s="1" t="inlineStr">
         <is>
           <t>구조화</t>
         </is>
       </c>
-      <c r="ENH1" s="1" t="inlineStr">
+      <c r="ENI1" s="1" t="inlineStr">
         <is>
           <t>학점</t>
         </is>
       </c>
-      <c r="ENI1" s="1" t="inlineStr">
+      <c r="ENJ1" s="1" t="inlineStr">
         <is>
           <t>nielsen</t>
         </is>
       </c>
-      <c r="ENJ1" s="1" t="inlineStr">
+      <c r="ENK1" s="1" t="inlineStr">
         <is>
           <t>관계자</t>
         </is>
       </c>
-      <c r="ENK1" s="1" t="inlineStr">
+      <c r="ENL1" s="1" t="inlineStr">
         <is>
           <t>중생</t>
         </is>
       </c>
-      <c r="ENL1" s="1" t="inlineStr">
+      <c r="ENM1" s="1" t="inlineStr">
         <is>
           <t>증거</t>
         </is>
       </c>
-      <c r="ENM1" s="1" t="inlineStr">
+      <c r="ENN1" s="1" t="inlineStr">
         <is>
           <t>진단평가</t>
         </is>
       </c>
-      <c r="ENN1" s="1" t="inlineStr">
+      <c r="ENO1" s="1" t="inlineStr">
         <is>
           <t>평가시스템</t>
         </is>
       </c>
-      <c r="ENO1" s="1" t="inlineStr">
+      <c r="ENP1" s="1" t="inlineStr">
         <is>
           <t>휴리스틱스</t>
         </is>
       </c>
-      <c r="ENP1" s="1" t="inlineStr">
+      <c r="ENQ1" s="1" t="inlineStr">
         <is>
           <t>해결수월</t>
         </is>
       </c>
-      <c r="ENQ1" s="1" t="inlineStr">
+      <c r="ENR1" s="1" t="inlineStr">
         <is>
           <t>기획서</t>
         </is>
       </c>
-      <c r="ENR1" s="1" t="inlineStr">
+      <c r="ENS1" s="1" t="inlineStr">
         <is>
           <t>성찰지</t>
         </is>
       </c>
-      <c r="ENS1" s="1" t="inlineStr">
+      <c r="ENT1" s="1" t="inlineStr">
         <is>
           <t>테이블</t>
         </is>
       </c>
-      <c r="ENT1" s="1" t="inlineStr">
+      <c r="ENU1" s="1" t="inlineStr">
         <is>
           <t>팀간</t>
         </is>
       </c>
-      <c r="ENU1" s="1" t="inlineStr">
+      <c r="ENV1" s="1" t="inlineStr">
         <is>
           <t>프로슈머</t>
         </is>
       </c>
-      <c r="ENV1" s="1" t="inlineStr">
+      <c r="ENW1" s="1" t="inlineStr">
         <is>
           <t>dr</t>
         </is>
       </c>
-      <c r="ENW1" s="1" t="inlineStr">
+      <c r="ENX1" s="1" t="inlineStr">
         <is>
           <t>비버챌린지</t>
         </is>
       </c>
-      <c r="ENX1" s="1" t="inlineStr">
+      <c r="ENY1" s="1" t="inlineStr">
         <is>
           <t>전공자</t>
         </is>
       </c>
-      <c r="ENY1" s="1" t="inlineStr">
+      <c r="ENZ1" s="1" t="inlineStr">
         <is>
           <t>최적화</t>
         </is>
       </c>
-      <c r="ENZ1" s="1" t="inlineStr">
+      <c r="EOA1" s="1" t="inlineStr">
         <is>
           <t>카운팅</t>
         </is>
       </c>
-      <c r="EOA1" s="1" t="inlineStr">
+      <c r="EOB1" s="1" t="inlineStr">
         <is>
           <t>파워</t>
         </is>
       </c>
-      <c r="EOB1" s="1" t="inlineStr">
+      <c r="EOC1" s="1" t="inlineStr">
         <is>
           <t>ddd</t>
         </is>
       </c>
-      <c r="EOC1" s="1" t="inlineStr">
+      <c r="EOD1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="EOD1" s="1" t="inlineStr">
+      <c r="EOE1" s="1" t="inlineStr">
         <is>
           <t>discovery</t>
         </is>
       </c>
-      <c r="EOE1" s="1" t="inlineStr">
+      <c r="EOF1" s="1" t="inlineStr">
         <is>
           <t>동작인식</t>
         </is>
       </c>
-      <c r="EOF1" s="1" t="inlineStr">
+      <c r="EOG1" s="1" t="inlineStr">
         <is>
           <t>도입부</t>
         </is>
       </c>
-      <c r="EOG1" s="1" t="inlineStr">
+      <c r="EOH1" s="1" t="inlineStr">
         <is>
           <t>해밍</t>
         </is>
       </c>
-      <c r="EOH1" s="1" t="inlineStr">
+      <c r="EOI1" s="1" t="inlineStr">
         <is>
           <t>humhub</t>
         </is>
       </c>
-      <c r="EOI1" s="1" t="inlineStr">
+      <c r="EOJ1" s="1" t="inlineStr">
         <is>
           <t>심체</t>
         </is>
       </c>
-      <c r="EOJ1" s="1" t="inlineStr">
+      <c r="EOK1" s="1" t="inlineStr">
         <is>
           <t>여성교사</t>
         </is>
       </c>
-      <c r="EOK1" s="1" t="inlineStr">
+      <c r="EOL1" s="1" t="inlineStr">
         <is>
           <t>놀이터</t>
         </is>
       </c>
-      <c r="EOL1" s="1" t="inlineStr">
+      <c r="EOM1" s="1" t="inlineStr">
         <is>
           <t>동센터</t>
         </is>
       </c>
-      <c r="EOM1" s="1" t="inlineStr">
+      <c r="EON1" s="1" t="inlineStr">
         <is>
           <t>가족</t>
         </is>
       </c>
-      <c r="EON1" s="1" t="inlineStr">
+      <c r="EOO1" s="1" t="inlineStr">
         <is>
           <t>관계망</t>
         </is>
       </c>
-      <c r="EOO1" s="1" t="inlineStr">
+      <c r="EOP1" s="1" t="inlineStr">
         <is>
           <t>친밀도</t>
         </is>
       </c>
-      <c r="EOP1" s="1" t="inlineStr">
+      <c r="EOQ1" s="1" t="inlineStr">
         <is>
           <t>친척</t>
         </is>
       </c>
-      <c r="EOQ1" s="1" t="inlineStr">
+      <c r="EOR1" s="1" t="inlineStr">
         <is>
           <t>혈연</t>
         </is>
       </c>
-      <c r="EOR1" s="1" t="inlineStr">
+      <c r="EOS1" s="1" t="inlineStr">
         <is>
           <t>혼자</t>
         </is>
       </c>
-      <c r="EOS1" s="1" t="inlineStr">
+      <c r="EOT1" s="1" t="inlineStr">
         <is>
           <t>riss</t>
         </is>
       </c>
-      <c r="EOT1" s="1" t="inlineStr">
+      <c r="EOU1" s="1" t="inlineStr">
         <is>
           <t>기각</t>
         </is>
       </c>
-      <c r="EOU1" s="1" t="inlineStr">
+      <c r="EOV1" s="1" t="inlineStr">
         <is>
           <t>지속의도</t>
         </is>
       </c>
-      <c r="EOV1" s="1" t="inlineStr">
+      <c r="EOW1" s="1" t="inlineStr">
         <is>
           <t>배정</t>
         </is>
       </c>
-      <c r="EOW1" s="1" t="inlineStr">
+      <c r="EOX1" s="1" t="inlineStr">
         <is>
           <t>전공계열</t>
         </is>
       </c>
-      <c r="EOX1" s="1" t="inlineStr">
+      <c r="EOY1" s="1" t="inlineStr">
         <is>
           <t>개년</t>
         </is>
       </c>
-      <c r="EOY1" s="1" t="inlineStr">
+      <c r="EOZ1" s="1" t="inlineStr">
         <is>
           <t>물적</t>
         </is>
       </c>
-      <c r="EOZ1" s="1" t="inlineStr">
+      <c r="EPA1" s="1" t="inlineStr">
         <is>
           <t>소지자</t>
         </is>
       </c>
-      <c r="EPA1" s="1" t="inlineStr">
+      <c r="EPB1" s="1" t="inlineStr">
         <is>
           <t>역설</t>
         </is>
       </c>
-      <c r="EPB1" s="1" t="inlineStr">
+      <c r="EPC1" s="1" t="inlineStr">
         <is>
           <t>운영비</t>
         </is>
       </c>
-      <c r="EPC1" s="1" t="inlineStr">
+      <c r="EPD1" s="1" t="inlineStr">
         <is>
           <t>총액</t>
         </is>
       </c>
-      <c r="EPD1" s="1" t="inlineStr">
+      <c r="EPE1" s="1" t="inlineStr">
         <is>
           <t>추이</t>
         </is>
       </c>
-      <c r="EPE1" s="1" t="inlineStr">
+      <c r="EPF1" s="1" t="inlineStr">
         <is>
           <t>타교과</t>
         </is>
       </c>
-      <c r="EPF1" s="1" t="inlineStr">
+      <c r="EPG1" s="1" t="inlineStr">
         <is>
           <t>필수화</t>
         </is>
       </c>
-      <c r="EPG1" s="1" t="inlineStr">
+      <c r="EPH1" s="1" t="inlineStr">
         <is>
           <t>명목</t>
         </is>
       </c>
-      <c r="EPH1" s="1" t="inlineStr">
+      <c r="EPI1" s="1" t="inlineStr">
         <is>
           <t>연구소</t>
         </is>
       </c>
-      <c r="EPI1" s="1" t="inlineStr">
+      <c r="EPJ1" s="1" t="inlineStr">
         <is>
           <t>입각</t>
         </is>
       </c>
-      <c r="EPJ1" s="1" t="inlineStr">
+      <c r="EPK1" s="1" t="inlineStr">
         <is>
           <t>테크닉</t>
         </is>
       </c>
-      <c r="EPK1" s="1" t="inlineStr">
+      <c r="EPL1" s="1" t="inlineStr">
         <is>
           <t>cvr</t>
         </is>
       </c>
-      <c r="EPL1" s="1" t="inlineStr">
+      <c r="EPM1" s="1" t="inlineStr">
         <is>
           <t>python</t>
         </is>
       </c>
-      <c r="EPM1" s="1" t="inlineStr">
+      <c r="EPN1" s="1" t="inlineStr">
         <is>
           <t>지도자</t>
         </is>
       </c>
-      <c r="EPN1" s="1" t="inlineStr">
+      <c r="EPO1" s="1" t="inlineStr">
         <is>
           <t>블록리</t>
         </is>
       </c>
-      <c r="EPO1" s="1" t="inlineStr">
+      <c r="EPP1" s="1" t="inlineStr">
         <is>
           <t>조사지</t>
         </is>
       </c>
-      <c r="EPP1" s="1" t="inlineStr">
+      <c r="EPQ1" s="1" t="inlineStr">
         <is>
           <t>코스페이시스</t>
         </is>
       </c>
-      <c r="EPQ1" s="1" t="inlineStr">
+      <c r="EPR1" s="1" t="inlineStr">
         <is>
           <t>디지털도구</t>
         </is>
       </c>
-      <c r="EPR1" s="1" t="inlineStr">
+      <c r="EPS1" s="1" t="inlineStr">
         <is>
           <t>디지털역량</t>
         </is>
       </c>
-      <c r="EPS1" s="1" t="inlineStr">
+      <c r="EPT1" s="1" t="inlineStr">
         <is>
           <t>디지털역량내용교수</t>
         </is>
       </c>
-      <c r="EPT1" s="1" t="inlineStr">
+      <c r="EPU1" s="1" t="inlineStr">
         <is>
           <t>디지털역량내용교수지식</t>
         </is>
       </c>
-      <c r="EPU1" s="1" t="inlineStr">
+      <c r="EPV1" s="1" t="inlineStr">
         <is>
           <t>인재상</t>
         </is>
       </c>
-      <c r="EPV1" s="1" t="inlineStr">
+      <c r="EPW1" s="1" t="inlineStr">
         <is>
           <t>마이</t>
         </is>
       </c>
-      <c r="EPW1" s="1" t="inlineStr">
+      <c r="EPX1" s="1" t="inlineStr">
         <is>
           <t>마이크</t>
         </is>
       </c>
-      <c r="EPX1" s="1" t="inlineStr">
+      <c r="EPY1" s="1" t="inlineStr">
         <is>
           <t>마이크로비트</t>
         </is>
       </c>
-      <c r="EPY1" s="1" t="inlineStr">
+      <c r="EPZ1" s="1" t="inlineStr">
         <is>
           <t>비트</t>
         </is>
       </c>
-      <c r="EPZ1" s="1" t="inlineStr">
+      <c r="EQA1" s="1" t="inlineStr">
         <is>
           <t>씽킹</t>
         </is>
       </c>
-      <c r="EQA1" s="1" t="inlineStr">
+      <c r="EQB1" s="1" t="inlineStr">
         <is>
           <t>diy</t>
         </is>
       </c>
-      <c r="EQB1" s="1" t="inlineStr">
+      <c r="EQC1" s="1" t="inlineStr">
         <is>
           <t>구성방안</t>
         </is>
       </c>
-      <c r="EQC1" s="1" t="inlineStr">
+      <c r="EQD1" s="1" t="inlineStr">
         <is>
           <t>메이킹</t>
         </is>
       </c>
-      <c r="EQD1" s="1" t="inlineStr">
+      <c r="EQE1" s="1" t="inlineStr">
         <is>
           <t>cs</t>
         </is>
       </c>
-      <c r="EQE1" s="1" t="inlineStr">
+      <c r="EQF1" s="1" t="inlineStr">
         <is>
           <t>최고</t>
         </is>
       </c>
-      <c r="EQF1" s="1" t="inlineStr">
+      <c r="EQG1" s="1" t="inlineStr">
         <is>
           <t>mdiap</t>
         </is>
       </c>
-      <c r="EQG1" s="1" t="inlineStr">
+      <c r="EQH1" s="1" t="inlineStr">
         <is>
           <t>나선형</t>
         </is>
       </c>
-      <c r="EQH1" s="1" t="inlineStr">
+      <c r="EQI1" s="1" t="inlineStr">
         <is>
           <t>동시다발</t>
         </is>
       </c>
-      <c r="EQI1" s="1" t="inlineStr">
+      <c r="EQJ1" s="1" t="inlineStr">
         <is>
           <t>일련</t>
         </is>
       </c>
-      <c r="EQJ1" s="1" t="inlineStr">
+      <c r="EQK1" s="1" t="inlineStr">
         <is>
           <t>배틀</t>
         </is>
       </c>
-      <c r="EQK1" s="1" t="inlineStr">
+      <c r="EQL1" s="1" t="inlineStr">
         <is>
           <t>불럭</t>
         </is>
       </c>
-      <c r="EQL1" s="1" t="inlineStr">
+      <c r="EQM1" s="1" t="inlineStr">
         <is>
           <t>요목</t>
         </is>
       </c>
-      <c r="EQM1" s="1" t="inlineStr">
+      <c r="EQN1" s="1" t="inlineStr">
         <is>
           <t>영유아</t>
         </is>
       </c>
-      <c r="EQN1" s="1" t="inlineStr">
+      <c r="EQO1" s="1" t="inlineStr">
         <is>
           <t>인문</t>
         </is>
       </c>
-      <c r="EQO1" s="1" t="inlineStr">
+      <c r="EQP1" s="1" t="inlineStr">
         <is>
           <t>저조</t>
         </is>
       </c>
-      <c r="EQP1" s="1" t="inlineStr">
+      <c r="EQQ1" s="1" t="inlineStr">
         <is>
           <t>고전</t>
         </is>
       </c>
-      <c r="EQQ1" s="1" t="inlineStr">
+      <c r="EQR1" s="1" t="inlineStr">
         <is>
           <t>기하판</t>
         </is>
       </c>
-      <c r="EQR1" s="1" t="inlineStr">
+      <c r="EQS1" s="1" t="inlineStr">
         <is>
           <t>wing</t>
         </is>
       </c>
-      <c r="EQS1" s="1" t="inlineStr">
+      <c r="EQT1" s="1" t="inlineStr">
         <is>
           <t>합격자</t>
         </is>
       </c>
-      <c r="EQT1" s="1" t="inlineStr">
+      <c r="EQU1" s="1" t="inlineStr">
         <is>
           <t>블록형</t>
         </is>
       </c>
-      <c r="EQU1" s="1" t="inlineStr">
+      <c r="EQV1" s="1" t="inlineStr">
         <is>
           <t>파이썬</t>
         </is>
       </c>
-      <c r="EQV1" s="1" t="inlineStr">
+      <c r="EQW1" s="1" t="inlineStr">
         <is>
           <t>챌린</t>
         </is>
       </c>
-      <c r="EQW1" s="1" t="inlineStr">
+      <c r="EQX1" s="1" t="inlineStr">
         <is>
           <t>ai</t>
         </is>
       </c>
-      <c r="EQX1" s="1" t="inlineStr">
+      <c r="EQY1" s="1" t="inlineStr">
         <is>
           <t>선도학교</t>
         </is>
       </c>
-      <c r="EQY1" s="1" t="inlineStr">
+      <c r="EQZ1" s="1" t="inlineStr">
         <is>
           <t>성중심</t>
         </is>
       </c>
-      <c r="EQZ1" s="1" t="inlineStr">
+      <c r="ERA1" s="1" t="inlineStr">
         <is>
           <t>수련관</t>
         </is>
       </c>
-      <c r="ERA1" s="1" t="inlineStr">
+      <c r="ERB1" s="1" t="inlineStr">
         <is>
           <t>선형순차</t>
         </is>
       </c>
-      <c r="ERB1" s="1" t="inlineStr">
+      <c r="ERC1" s="1" t="inlineStr">
         <is>
           <t>자유도</t>
         </is>
       </c>
-      <c r="ERC1" s="1" t="inlineStr">
+      <c r="ERD1" s="1" t="inlineStr">
         <is>
           <t>테크</t>
         </is>
       </c>
-      <c r="ERD1" s="1" t="inlineStr">
+      <c r="ERE1" s="1" t="inlineStr">
         <is>
           <t>서류</t>
         </is>
       </c>
-      <c r="ERE1" s="1" t="inlineStr">
+      <c r="ERF1" s="1" t="inlineStr">
         <is>
           <t>초등융합</t>
         </is>
       </c>
-      <c r="ERF1" s="1" t="inlineStr">
+      <c r="ERG1" s="1" t="inlineStr">
         <is>
           <t>icils</t>
         </is>
       </c>
-      <c r="ERG1" s="1" t="inlineStr">
+      <c r="ERH1" s="1" t="inlineStr">
         <is>
           <t>위원</t>
         </is>
       </c>
-      <c r="ERH1" s="1" t="inlineStr">
+      <c r="ERI1" s="1" t="inlineStr">
         <is>
           <t>책자</t>
         </is>
       </c>
-      <c r="ERI1" s="1" t="inlineStr">
+      <c r="ERJ1" s="1" t="inlineStr">
         <is>
           <t>hierarchical</t>
         </is>
       </c>
-      <c r="ERJ1" s="1" t="inlineStr">
+      <c r="ERK1" s="1" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="ERK1" s="1" t="inlineStr">
+      <c r="ERL1" s="1" t="inlineStr">
         <is>
           <t>linear</t>
         </is>
       </c>
-      <c r="ERL1" s="1" t="inlineStr">
+      <c r="ERM1" s="1" t="inlineStr">
         <is>
           <t>two</t>
         </is>
       </c>
-      <c r="ERM1" s="1" t="inlineStr">
+      <c r="ERN1" s="1" t="inlineStr">
         <is>
           <t>공평함</t>
         </is>
       </c>
-      <c r="ERN1" s="1" t="inlineStr">
+      <c r="ERO1" s="1" t="inlineStr">
         <is>
           <t>오락</t>
         </is>
       </c>
-      <c r="ERO1" s="1" t="inlineStr">
+      <c r="ERP1" s="1" t="inlineStr">
         <is>
           <t>이벤트</t>
         </is>
       </c>
-      <c r="ERP1" s="1" t="inlineStr">
+      <c r="ERQ1" s="1" t="inlineStr">
         <is>
           <t>공업</t>
         </is>
       </c>
-      <c r="ERQ1" s="1" t="inlineStr">
+      <c r="ERR1" s="1" t="inlineStr">
         <is>
           <t>내외향</t>
         </is>
       </c>
-      <c r="ERR1" s="1" t="inlineStr">
+      <c r="ERS1" s="1" t="inlineStr">
         <is>
           <t>신청학생</t>
         </is>
       </c>
-      <c r="ERS1" s="1" t="inlineStr">
+      <c r="ERT1" s="1" t="inlineStr">
         <is>
           <t>진단지</t>
         </is>
       </c>
-      <c r="ERT1" s="1" t="inlineStr">
+      <c r="ERU1" s="1" t="inlineStr">
         <is>
           <t>내러티브</t>
         </is>
       </c>
-      <c r="ERU1" s="1" t="inlineStr">
+      <c r="ERV1" s="1" t="inlineStr">
         <is>
           <t>종이아</t>
         </is>
       </c>
-      <c r="ERV1" s="1" t="inlineStr">
+      <c r="ERW1" s="1" t="inlineStr">
         <is>
           <t>종이아트</t>
         </is>
       </c>
-      <c r="ERW1" s="1" t="inlineStr">
+      <c r="ERX1" s="1" t="inlineStr">
         <is>
           <t>pagerank</t>
         </is>
       </c>
-      <c r="ERX1" s="1" t="inlineStr">
+      <c r="ERY1" s="1" t="inlineStr">
         <is>
           <t>모사</t>
         </is>
       </c>
-      <c r="ERY1" s="1" t="inlineStr">
+      <c r="ERZ1" s="1" t="inlineStr">
         <is>
           <t>상식</t>
         </is>
       </c>
-      <c r="ERZ1" s="1" t="inlineStr">
+      <c r="ESA1" s="1" t="inlineStr">
         <is>
           <t>cpu</t>
         </is>
       </c>
-      <c r="ESA1" s="1" t="inlineStr">
+      <c r="ESB1" s="1" t="inlineStr">
         <is>
           <t>ghz</t>
         </is>
       </c>
-      <c r="ESB1" s="1" t="inlineStr">
+      <c r="ESC1" s="1" t="inlineStr">
         <is>
           <t>mega</t>
         </is>
       </c>
-      <c r="ESC1" s="1" t="inlineStr">
+      <c r="ESD1" s="1" t="inlineStr">
         <is>
           <t>mook</t>
         </is>
       </c>
-      <c r="ESD1" s="1" t="inlineStr">
+      <c r="ESE1" s="1" t="inlineStr">
         <is>
           <t>ram</t>
         </is>
       </c>
-      <c r="ESE1" s="1" t="inlineStr">
+      <c r="ESF1" s="1" t="inlineStr">
         <is>
           <t>노트북</t>
         </is>
       </c>
-      <c r="ESF1" s="1" t="inlineStr">
+      <c r="ESG1" s="1" t="inlineStr">
         <is>
           <t>무크</t>
         </is>
       </c>
-      <c r="ESG1" s="1" t="inlineStr">
+      <c r="ESH1" s="1" t="inlineStr">
         <is>
           <t>바이트</t>
         </is>
       </c>
-      <c r="ESH1" s="1" t="inlineStr">
+      <c r="ESI1" s="1" t="inlineStr">
         <is>
           <t>사용량</t>
         </is>
       </c>
-      <c r="ESI1" s="1" t="inlineStr">
+      <c r="ESJ1" s="1" t="inlineStr">
         <is>
           <t>오디오</t>
         </is>
       </c>
-      <c r="ESJ1" s="1" t="inlineStr">
+      <c r="ESK1" s="1" t="inlineStr">
         <is>
           <t>점유</t>
         </is>
       </c>
-      <c r="ESK1" s="1" t="inlineStr">
+      <c r="ESL1" s="1" t="inlineStr">
         <is>
           <t>구인</t>
         </is>
       </c>
-      <c r="ESL1" s="1" t="inlineStr">
+      <c r="ESM1" s="1" t="inlineStr">
         <is>
           <t>융합프로그램</t>
         </is>
       </c>
-      <c r="ESM1" s="1" t="inlineStr">
+      <c r="ESN1" s="1" t="inlineStr">
         <is>
           <t>귀납</t>
         </is>
       </c>
-      <c r="ESN1" s="1" t="inlineStr">
+      <c r="ESO1" s="1" t="inlineStr">
         <is>
           <t>연역</t>
         </is>
       </c>
-      <c r="ESO1" s="1" t="inlineStr">
+      <c r="ESP1" s="1" t="inlineStr">
         <is>
           <t>사화</t>
         </is>
       </c>
-      <c r="ESP1" s="1" t="inlineStr">
+      <c r="ESQ1" s="1" t="inlineStr">
         <is>
           <t>borich</t>
         </is>
       </c>
-      <c r="ESQ1" s="1" t="inlineStr">
+      <c r="ESR1" s="1" t="inlineStr">
         <is>
           <t>focus</t>
         </is>
       </c>
-      <c r="ESR1" s="1" t="inlineStr">
+      <c r="ESS1" s="1" t="inlineStr">
         <is>
           <t>locus</t>
         </is>
       </c>
-      <c r="ESS1" s="1" t="inlineStr">
+      <c r="EST1" s="1" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="EST1" s="1" t="inlineStr">
+      <c r="ESU1" s="1" t="inlineStr">
         <is>
           <t>고성능컴퓨팅</t>
         </is>
       </c>
-      <c r="ESU1" s="1" t="inlineStr">
+      <c r="ESV1" s="1" t="inlineStr">
         <is>
           <t>병렬</t>
         </is>
       </c>
-      <c r="ESV1" s="1" t="inlineStr">
+      <c r="ESW1" s="1" t="inlineStr">
         <is>
           <t>성능컴퓨팅</t>
         </is>
       </c>
-      <c r="ESW1" s="1" t="inlineStr">
+      <c r="ESX1" s="1" t="inlineStr">
         <is>
           <t>요구도</t>
         </is>
       </c>
-      <c r="ESX1" s="1" t="inlineStr">
+      <c r="ESY1" s="1" t="inlineStr">
         <is>
           <t>후보</t>
         </is>
       </c>
-      <c r="ESY1" s="1" t="inlineStr">
+      <c r="ESZ1" s="1" t="inlineStr">
         <is>
           <t>단계설문지</t>
         </is>
       </c>
-      <c r="ESZ1" s="1" t="inlineStr">
+      <c r="ETA1" s="1" t="inlineStr">
         <is>
           <t>부처</t>
         </is>
       </c>
-      <c r="ETA1" s="1" t="inlineStr">
+      <c r="ETB1" s="1" t="inlineStr">
         <is>
           <t>세미나</t>
         </is>
       </c>
-      <c r="ETB1" s="1" t="inlineStr">
+      <c r="ETC1" s="1" t="inlineStr">
         <is>
           <t>연구회</t>
         </is>
       </c>
-      <c r="ETC1" s="1" t="inlineStr">
+      <c r="ETD1" s="1" t="inlineStr">
         <is>
           <t>유튜브</t>
         </is>
       </c>
-      <c r="ETD1" s="1" t="inlineStr">
+      <c r="ETE1" s="1" t="inlineStr">
         <is>
           <t>장학</t>
         </is>
       </c>
-      <c r="ETE1" s="1" t="inlineStr">
+      <c r="ETF1" s="1" t="inlineStr">
         <is>
           <t>컨설팅</t>
         </is>
       </c>
-      <c r="ETF1" s="1" t="inlineStr">
+      <c r="ETG1" s="1" t="inlineStr">
         <is>
           <t>허브</t>
         </is>
       </c>
-      <c r="ETG1" s="1" t="inlineStr">
+      <c r="ETH1" s="1" t="inlineStr">
         <is>
           <t>현업</t>
         </is>
       </c>
-      <c r="ETH1" s="1" t="inlineStr">
+      <c r="ETI1" s="1" t="inlineStr">
         <is>
           <t>cbam</t>
         </is>
       </c>
-      <c r="ETI1" s="1" t="inlineStr">
+      <c r="ETJ1" s="1" t="inlineStr">
         <is>
           <t>hall</t>
         </is>
       </c>
-      <c r="ETJ1" s="1" t="inlineStr">
+      <c r="ETK1" s="1" t="inlineStr">
         <is>
           <t>hord</t>
         </is>
       </c>
-      <c r="ETK1" s="1" t="inlineStr">
+      <c r="ETL1" s="1" t="inlineStr">
         <is>
           <t>앱개발</t>
         </is>
       </c>
-      <c r="ETL1" s="1" t="inlineStr">
+      <c r="ETM1" s="1" t="inlineStr">
         <is>
           <t>프로파일</t>
         </is>
       </c>
-      <c r="ETM1" s="1" t="inlineStr">
+      <c r="ETN1" s="1" t="inlineStr">
         <is>
           <t>access</t>
         </is>
       </c>
-      <c r="ETN1" s="1" t="inlineStr">
+      <c r="ETO1" s="1" t="inlineStr">
         <is>
           <t>oer</t>
         </is>
       </c>
-      <c r="ETO1" s="1" t="inlineStr">
+      <c r="ETP1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="ETP1" s="1" t="inlineStr">
+      <c r="ETQ1" s="1" t="inlineStr">
         <is>
           <t>resource</t>
         </is>
       </c>
-      <c r="ETQ1" s="1" t="inlineStr">
+      <c r="ETR1" s="1" t="inlineStr">
         <is>
           <t>diversify</t>
         </is>
       </c>
-      <c r="ETR1" s="1" t="inlineStr">
+      <c r="ETS1" s="1" t="inlineStr">
         <is>
           <t>idol</t>
         </is>
       </c>
-      <c r="ETS1" s="1" t="inlineStr">
+      <c r="ETT1" s="1" t="inlineStr">
         <is>
           <t>implement</t>
         </is>
       </c>
-      <c r="ETT1" s="1" t="inlineStr">
+      <c r="ETU1" s="1" t="inlineStr">
         <is>
           <t>observe</t>
         </is>
       </c>
-      <c r="ETU1" s="1" t="inlineStr">
+      <c r="ETV1" s="1" t="inlineStr">
         <is>
           <t>다변</t>
         </is>
       </c>
-      <c r="ETV1" s="1" t="inlineStr">
+      <c r="ETW1" s="1" t="inlineStr">
         <is>
           <t>덜파이</t>
         </is>
       </c>
-      <c r="ETW1" s="1" t="inlineStr">
+      <c r="ETX1" s="1" t="inlineStr">
         <is>
           <t>아이돌</t>
         </is>
       </c>
-      <c r="ETX1" s="1" t="inlineStr">
+      <c r="ETY1" s="1" t="inlineStr">
         <is>
           <t>그릿</t>
         </is>
       </c>
-      <c r="ETY1" s="1" t="inlineStr">
+      <c r="ETZ1" s="1" t="inlineStr">
         <is>
           <t>부모지원</t>
         </is>
       </c>
-      <c r="ETZ1" s="1" t="inlineStr">
+      <c r="EUA1" s="1" t="inlineStr">
         <is>
           <t>kci</t>
         </is>
       </c>
-      <c r="EUA1" s="1" t="inlineStr">
+      <c r="EUB1" s="1" t="inlineStr">
         <is>
           <t>소주</t>
         </is>
       </c>
-      <c r="EUB1" s="1" t="inlineStr">
+      <c r="EUC1" s="1" t="inlineStr">
         <is>
           <t>인용</t>
         </is>
       </c>
-      <c r="EUC1" s="1" t="inlineStr">
+      <c r="EUD1" s="1" t="inlineStr">
         <is>
           <t>인용색인</t>
         </is>
       </c>
-      <c r="EUD1" s="1" t="inlineStr">
+      <c r="EUE1" s="1" t="inlineStr">
         <is>
           <t>중첩</t>
         </is>
       </c>
-      <c r="EUE1" s="1" t="inlineStr">
+      <c r="EUF1" s="1" t="inlineStr">
         <is>
           <t>학회</t>
         </is>
       </c>
-      <c r="EUF1" s="1" t="inlineStr">
+      <c r="EUG1" s="1" t="inlineStr">
         <is>
           <t>회수</t>
         </is>
       </c>
-      <c r="EUG1" s="1" t="inlineStr">
+      <c r="EUH1" s="1" t="inlineStr">
         <is>
           <t>csunplugged</t>
         </is>
       </c>
-      <c r="EUH1" s="1" t="inlineStr">
+      <c r="EUI1" s="1" t="inlineStr">
         <is>
           <t>삽입</t>
         </is>
       </c>
-      <c r="EUI1" s="1" t="inlineStr">
+      <c r="EUJ1" s="1" t="inlineStr">
         <is>
           <t>구비</t>
         </is>
       </c>
-      <c r="EUJ1" s="1" t="inlineStr">
+      <c r="EUK1" s="1" t="inlineStr">
         <is>
           <t>미래인재</t>
         </is>
       </c>
-      <c r="EUK1" s="1" t="inlineStr">
+      <c r="EUL1" s="1" t="inlineStr">
         <is>
           <t>의수</t>
         </is>
       </c>
-      <c r="EUL1" s="1" t="inlineStr">
+      <c r="EUM1" s="1" t="inlineStr">
         <is>
           <t>창의융합</t>
         </is>
       </c>
-      <c r="EUM1" s="1" t="inlineStr">
+      <c r="EUN1" s="1" t="inlineStr">
         <is>
           <t>핵심인재</t>
         </is>
       </c>
-      <c r="EUN1" s="1" t="inlineStr">
+      <c r="EUO1" s="1" t="inlineStr">
         <is>
           <t>핵심인재상</t>
         </is>
       </c>
-      <c r="EUO1" s="1" t="inlineStr">
+      <c r="EUP1" s="1" t="inlineStr">
         <is>
           <t>iea</t>
         </is>
       </c>
-      <c r="EUP1" s="1" t="inlineStr">
+      <c r="EUQ1" s="1" t="inlineStr">
         <is>
           <t>modi</t>
         </is>
       </c>
-      <c r="EUQ1" s="1" t="inlineStr">
+      <c r="EUR1" s="1" t="inlineStr">
         <is>
           <t>코딩블록</t>
         </is>
       </c>
-      <c r="EUR1" s="1" t="inlineStr">
+      <c r="EUS1" s="1" t="inlineStr">
         <is>
           <t>협회</t>
         </is>
@@ -20183,7 +20188,7 @@
         <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>14.53999999999992</v>
+        <v>14.54999999999992</v>
       </c>
       <c r="L2" t="n">
         <v>3.35</v>
@@ -20222,19 +20227,19 @@
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>19.27999999999998</v>
+        <v>19.28999999999998</v>
       </c>
       <c r="Y2" t="n">
         <v>3.34</v>
       </c>
       <c r="Z2" t="n">
-        <v>27.79999999999999</v>
+        <v>27.81999999999999</v>
       </c>
       <c r="AA2" t="n">
         <v>12.10999999999996</v>
       </c>
       <c r="AB2" t="n">
-        <v>13.36999999999994</v>
+        <v>13.35999999999994</v>
       </c>
       <c r="AC2" t="n">
         <v>11.12999999999996</v>
@@ -20246,7 +20251,7 @@
         <v>0.26</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229999999999999</v>
+        <v>4.23</v>
       </c>
       <c r="AG2" t="n">
         <v>4.669999999999999</v>
@@ -20261,7 +20266,7 @@
         <v>2.2</v>
       </c>
       <c r="AK2" t="n">
-        <v>13.77999999999999</v>
+        <v>13.78999999999999</v>
       </c>
       <c r="AL2" t="n">
         <v>6.670000000000001</v>
@@ -20279,7 +20284,7 @@
         <v>6.089999999999995</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8.420000000000002</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="AR2" t="n">
         <v>10.08</v>
@@ -20327,13 +20332,13 @@
         <v>4.43</v>
       </c>
       <c r="BG2" t="n">
-        <v>5.549999999999999</v>
+        <v>5.559999999999999</v>
       </c>
       <c r="BH2" t="n">
         <v>0.95</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BJ2" t="n">
         <v>2.350000000000001</v>
@@ -20354,10 +20359,10 @@
         <v>23.11999999999997</v>
       </c>
       <c r="BP2" t="n">
-        <v>6.109999999999996</v>
+        <v>6.119999999999996</v>
       </c>
       <c r="BQ2" t="n">
-        <v>8.31</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="BR2" t="n">
         <v>8.049999999999994</v>
@@ -20375,7 +20380,7 @@
         <v>0.62</v>
       </c>
       <c r="BW2" t="n">
-        <v>13.36999999999995</v>
+        <v>13.37999999999995</v>
       </c>
       <c r="BX2" t="n">
         <v>3.18</v>
@@ -20405,7 +20410,7 @@
         <v>8.439999999999998</v>
       </c>
       <c r="CG2" t="n">
-        <v>22.94000000000003</v>
+        <v>22.94000000000002</v>
       </c>
       <c r="CH2" t="n">
         <v>7.979999999999999</v>
@@ -20465,13 +20470,13 @@
         <v>2.830000000000001</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="DB2" t="n">
         <v>0.84</v>
       </c>
       <c r="DC2" t="n">
-        <v>9.269999999999994</v>
+        <v>9.279999999999994</v>
       </c>
       <c r="DD2" t="n">
         <v>0.4</v>
@@ -20480,7 +20485,7 @@
         <v>4.379999999999999</v>
       </c>
       <c r="DF2" t="n">
-        <v>15.66999999999999</v>
+        <v>15.65999999999999</v>
       </c>
       <c r="DG2" t="n">
         <v>5.919999999999998</v>
@@ -20522,7 +20527,7 @@
         <v>0.55</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="DU2" t="n">
         <v>2.97</v>
@@ -20531,7 +20536,7 @@
         <v>3.73</v>
       </c>
       <c r="DW2" t="n">
-        <v>15.54999999999998</v>
+        <v>15.55999999999998</v>
       </c>
       <c r="DX2" t="n">
         <v>0.09</v>
@@ -20561,7 +20566,7 @@
         <v>0.09</v>
       </c>
       <c r="EG2" t="n">
-        <v>7.840000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="EH2" t="n">
         <v>2.220000000000001</v>
@@ -20612,7 +20617,7 @@
         <v>9.199999999999989</v>
       </c>
       <c r="EX2" t="n">
-        <v>7.169999999999999</v>
+        <v>7.179999999999999</v>
       </c>
       <c r="EY2" t="n">
         <v>0.09</v>
@@ -20633,7 +20638,7 @@
         <v>0.09</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="FF2" t="n">
         <v>0.09</v>
@@ -20645,7 +20650,7 @@
         <v>5.239999999999998</v>
       </c>
       <c r="FI2" t="n">
-        <v>7.909999999999998</v>
+        <v>7.919999999999998</v>
       </c>
       <c r="FJ2" t="n">
         <v>0.51</v>
@@ -20708,10 +20713,10 @@
         <v>3.769999999999999</v>
       </c>
       <c r="GD2" t="n">
-        <v>4.439999999999999</v>
+        <v>4.449999999999999</v>
       </c>
       <c r="GE2" t="n">
-        <v>5.94</v>
+        <v>5.95</v>
       </c>
       <c r="GF2" t="n">
         <v>2.65</v>
@@ -20750,7 +20755,7 @@
         <v>6.180000000000002</v>
       </c>
       <c r="GR2" t="n">
-        <v>4.209999999999999</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="GS2" t="n">
         <v>0.27</v>
@@ -20774,7 +20779,7 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="GZ2" t="n">
-        <v>4.49</v>
+        <v>4.48</v>
       </c>
       <c r="HA2" t="n">
         <v>2.390000000000001</v>
@@ -20861,13 +20866,13 @@
         <v>2.92</v>
       </c>
       <c r="IC2" t="n">
-        <v>8.379999999999997</v>
+        <v>8.389999999999997</v>
       </c>
       <c r="ID2" t="n">
         <v>5.489999999999997</v>
       </c>
       <c r="IE2" t="n">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="IF2" t="n">
         <v>1.09</v>
@@ -21026,7 +21031,7 @@
         <v>4.289999999999999</v>
       </c>
       <c r="KF2" t="n">
-        <v>12.99999999999999</v>
+        <v>13.00999999999999</v>
       </c>
       <c r="KG2" t="n">
         <v>8.919999999999991</v>
@@ -21041,7 +21046,7 @@
         <v>0.25</v>
       </c>
       <c r="KK2" t="n">
-        <v>10.51</v>
+        <v>10.49</v>
       </c>
       <c r="KL2" t="n">
         <v>2.660000000000001</v>
@@ -21104,7 +21109,7 @@
         <v>0.53</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="LG2" t="n">
         <v>2.899999999999999</v>
@@ -21125,7 +21130,7 @@
         <v>1.830000000000001</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="LN2" t="n">
         <v>0.5700000000000001</v>
@@ -21269,7 +21274,7 @@
         <v>9.819999999999988</v>
       </c>
       <c r="NI2" t="n">
-        <v>6.479999999999996</v>
+        <v>6.499999999999996</v>
       </c>
       <c r="NJ2" t="n">
         <v>1.46</v>
@@ -21380,7 +21385,7 @@
         <v>2.07</v>
       </c>
       <c r="OT2" t="n">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="OU2" t="n">
         <v>2.61</v>
@@ -21416,7 +21421,7 @@
         <v>0.17</v>
       </c>
       <c r="PF2" t="n">
-        <v>6.669999999999995</v>
+        <v>6.679999999999995</v>
       </c>
       <c r="PG2" t="n">
         <v>3.66</v>
@@ -21467,7 +21472,7 @@
         <v>0.13</v>
       </c>
       <c r="PW2" t="n">
-        <v>8.829999999999997</v>
+        <v>8.839999999999996</v>
       </c>
       <c r="PX2" t="n">
         <v>2.09</v>
@@ -21518,7 +21523,7 @@
         <v>0.29</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="QO2" t="n">
         <v>1.34</v>
@@ -21731,7 +21736,7 @@
         <v>0.13</v>
       </c>
       <c r="TG2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="TH2" t="n">
         <v>0.26</v>
@@ -21764,7 +21769,7 @@
         <v>1.32</v>
       </c>
       <c r="TR2" t="n">
-        <v>3.309999999999999</v>
+        <v>3.319999999999999</v>
       </c>
       <c r="TS2" t="n">
         <v>0.27</v>
@@ -21782,7 +21787,7 @@
         <v>0.51</v>
       </c>
       <c r="TX2" t="n">
-        <v>6.35</v>
+        <v>6.339999999999999</v>
       </c>
       <c r="TY2" t="n">
         <v>0.2</v>
@@ -21833,7 +21838,7 @@
         <v>0.88</v>
       </c>
       <c r="UO2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="UP2" t="n">
         <v>2.69</v>
@@ -21884,7 +21889,7 @@
         <v>0.2</v>
       </c>
       <c r="VF2" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="VG2" t="n">
         <v>0.2</v>
@@ -21968,7 +21973,7 @@
         <v>1.01</v>
       </c>
       <c r="WH2" t="n">
-        <v>5.769999999999998</v>
+        <v>5.779999999999998</v>
       </c>
       <c r="WI2" t="n">
         <v>0.7999999999999999</v>
@@ -22166,7 +22171,7 @@
         <v>0.39</v>
       </c>
       <c r="YV2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="YW2" t="n">
         <v>0.24</v>
@@ -22226,7 +22231,7 @@
         <v>0.12</v>
       </c>
       <c r="ZP2" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="ZQ2" t="n">
         <v>2.09</v>
@@ -22238,7 +22243,7 @@
         <v>2.53</v>
       </c>
       <c r="ZT2" t="n">
-        <v>2.590000000000001</v>
+        <v>2.580000000000001</v>
       </c>
       <c r="ZU2" t="n">
         <v>1.74</v>
@@ -22256,10 +22261,10 @@
         <v>0.36</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>3.969999999999999</v>
+        <v>3.98</v>
       </c>
       <c r="AAA2" t="n">
-        <v>4.14</v>
+        <v>2.83</v>
       </c>
       <c r="AAB2" t="n">
         <v>0.44</v>
@@ -22319,7 +22324,7 @@
         <v>0.31</v>
       </c>
       <c r="AAU2" t="n">
-        <v>1.940000000000001</v>
+        <v>1.950000000000001</v>
       </c>
       <c r="AAV2" t="n">
         <v>0.09</v>
@@ -22346,7 +22351,7 @@
         <v>0.78</v>
       </c>
       <c r="ABD2" t="n">
-        <v>3.739999999999999</v>
+        <v>3.749999999999999</v>
       </c>
       <c r="ABE2" t="n">
         <v>2.04</v>
@@ -22442,7 +22447,7 @@
         <v>0.11</v>
       </c>
       <c r="ACJ2" t="n">
-        <v>4.46</v>
+        <v>4.47</v>
       </c>
       <c r="ACK2" t="n">
         <v>7.509999999999998</v>
@@ -22454,7 +22459,7 @@
         <v>0.73</v>
       </c>
       <c r="ACN2" t="n">
-        <v>4.319999999999999</v>
+        <v>4.309999999999999</v>
       </c>
       <c r="ACO2" t="n">
         <v>0.9500000000000002</v>
@@ -22568,7 +22573,7 @@
         <v>2.14</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AEA2" t="n">
         <v>0.34</v>
@@ -22583,7 +22588,7 @@
         <v>0.31</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="AEF2" t="n">
         <v>0.16</v>
@@ -22784,7 +22789,7 @@
         <v>1.6</v>
       </c>
       <c r="AGT2" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AGU2" t="n">
         <v>0.08</v>
@@ -22826,7 +22831,7 @@
         <v>0.08</v>
       </c>
       <c r="AHH2" t="n">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="AHI2" t="n">
         <v>0.08</v>
@@ -22955,7 +22960,7 @@
         <v>0.89</v>
       </c>
       <c r="AIY2" t="n">
-        <v>4.290000000000001</v>
+        <v>4.28</v>
       </c>
       <c r="AIZ2" t="n">
         <v>1.990000000000001</v>
@@ -23138,13 +23143,13 @@
         <v>0.51</v>
       </c>
       <c r="ALH2" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="ALI2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="ALJ2" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="ALK2" t="n">
         <v>1.43</v>
@@ -23210,7 +23215,7 @@
         <v>0.48</v>
       </c>
       <c r="AMF2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AMG2" t="n">
         <v>0.7799999999999999</v>
@@ -23237,7 +23242,7 @@
         <v>1.880000000000001</v>
       </c>
       <c r="AMO2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AMP2" t="n">
         <v>0.3</v>
@@ -23435,7 +23440,7 @@
         <v>3.77</v>
       </c>
       <c r="APC2" t="n">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="APD2" t="n">
         <v>0.79</v>
@@ -23480,7 +23485,7 @@
         <v>0.47</v>
       </c>
       <c r="APR2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="APS2" t="n">
         <v>0.17</v>
@@ -23711,7 +23716,7 @@
         <v>0.62</v>
       </c>
       <c r="ASQ2" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="ASR2" t="n">
         <v>0.12</v>
@@ -23720,7 +23725,7 @@
         <v>2.180000000000001</v>
       </c>
       <c r="AST2" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="ASU2" t="n">
         <v>0.9599999999999999</v>
@@ -23807,7 +23812,7 @@
         <v>0.37</v>
       </c>
       <c r="ATW2" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="ATX2" t="n">
         <v>0.7899999999999999</v>
@@ -23834,7 +23839,7 @@
         <v>0.09</v>
       </c>
       <c r="AUF2" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="AUG2" t="n">
         <v>0.09</v>
@@ -23885,7 +23890,7 @@
         <v>0.89</v>
       </c>
       <c r="AUW2" t="n">
-        <v>7.34</v>
+        <v>7.329999999999999</v>
       </c>
       <c r="AUX2" t="n">
         <v>0.6100000000000001</v>
@@ -23936,7 +23941,7 @@
         <v>0.15</v>
       </c>
       <c r="AVN2" t="n">
-        <v>0.6299999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="AVO2" t="n">
         <v>0.15</v>
@@ -24098,7 +24103,7 @@
         <v>0.11</v>
       </c>
       <c r="AXP2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AXQ2" t="n">
         <v>0.11</v>
@@ -24680,7 +24685,7 @@
         <v>0.34</v>
       </c>
       <c r="BFB2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BFC2" t="n">
         <v>0.12</v>
@@ -24887,7 +24892,7 @@
         <v>0.95</v>
       </c>
       <c r="BHS2" t="n">
-        <v>2.910000000000001</v>
+        <v>2.96</v>
       </c>
       <c r="BHT2" t="n">
         <v>0.34</v>
@@ -24923,7 +24928,7 @@
         <v>0.22</v>
       </c>
       <c r="BIE2" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="BIF2" t="n">
         <v>0.39</v>
@@ -24950,10 +24955,10 @@
         <v>1.38</v>
       </c>
       <c r="BIN2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="BIO2" t="n">
-        <v>2.890000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="BIP2" t="n">
         <v>0.31</v>
@@ -25109,7 +25114,7 @@
         <v>0.7599999999999999</v>
       </c>
       <c r="BKO2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="BKP2" t="n">
         <v>0.46</v>
@@ -25172,7 +25177,7 @@
         <v>0.13</v>
       </c>
       <c r="BLJ2" t="n">
-        <v>0.8799999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="BLK2" t="n">
         <v>0.52</v>
@@ -25358,7 +25363,7 @@
         <v>0.17</v>
       </c>
       <c r="BNT2" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="BNU2" t="n">
         <v>0.28</v>
@@ -25946,7 +25951,7 @@
         <v>0.11</v>
       </c>
       <c r="BVH2" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="BVI2" t="n">
         <v>0.11</v>
@@ -26579,7 +26584,7 @@
         <v>0.09</v>
       </c>
       <c r="CDK2" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="CDL2" t="n">
         <v>0.09</v>
@@ -26990,10 +26995,10 @@
         <v>0.16</v>
       </c>
       <c r="CIR2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="CIS2" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="CIT2" t="n">
         <v>0.26</v>
@@ -27185,7 +27190,7 @@
         <v>0.66</v>
       </c>
       <c r="CLE2" t="n">
-        <v>0.8399999999999999</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="CLF2" t="n">
         <v>0.12</v>
@@ -27308,7 +27313,7 @@
         <v>0.14</v>
       </c>
       <c r="CMT2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="CMU2" t="n">
         <v>0.27</v>
@@ -27530,7 +27535,7 @@
         <v>0.09</v>
       </c>
       <c r="CPP2" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="CPQ2" t="n">
         <v>0.09</v>
@@ -28175,7 +28180,7 @@
         <v>0.1</v>
       </c>
       <c r="CXW2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="CXX2" t="n">
         <v>0.1</v>
@@ -28334,7 +28339,7 @@
         <v>0.52</v>
       </c>
       <c r="CZX2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="CZY2" t="n">
         <v>0.22</v>
@@ -28664,7 +28669,7 @@
         <v>0.16</v>
       </c>
       <c r="DED2" t="n">
-        <v>2.03</v>
+        <v>0.21</v>
       </c>
       <c r="DEE2" t="n">
         <v>0.13</v>
@@ -29207,7 +29212,7 @@
         <v>0.11</v>
       </c>
       <c r="DLC2" t="n">
-        <v>0.7200000000000001</v>
+        <v>0.7300000000000001</v>
       </c>
       <c r="DLD2" t="n">
         <v>0.25</v>
@@ -29276,13 +29281,13 @@
         <v>0.09</v>
       </c>
       <c r="DLZ2" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="DMA2" t="n">
         <v>0.12</v>
       </c>
       <c r="DMB2" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="DMC2" t="n">
         <v>0.09</v>
@@ -29882,7 +29887,7 @@
         <v>0.7300000000000001</v>
       </c>
       <c r="DTT2" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="DTU2" t="n">
         <v>0.24</v>
@@ -30812,7 +30817,7 @@
         <v>0.14</v>
       </c>
       <c r="EFR2" t="n">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="EFS2" t="n">
         <v>0.16</v>
@@ -30971,28 +30976,28 @@
         <v>0.16</v>
       </c>
       <c r="EHS2" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="EHT2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="EHU2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EHU2" t="n">
+      <c r="EHV2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EHV2" t="n">
+      <c r="EHW2" t="n">
         <v>0.55</v>
       </c>
-      <c r="EHW2" t="n">
+      <c r="EHX2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EHX2" t="n">
+      <c r="EHY2" t="n">
         <v>0.3</v>
       </c>
-      <c r="EHY2" t="n">
+      <c r="EHZ2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EHZ2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EIA2" t="n">
         <v>0.12</v>
@@ -31001,52 +31006,52 @@
         <v>0.12</v>
       </c>
       <c r="EIC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EID2" t="n">
         <v>0.52</v>
-      </c>
-      <c r="EID2" t="n">
-        <v>0.25</v>
       </c>
       <c r="EIE2" t="n">
         <v>0.25</v>
       </c>
       <c r="EIF2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="EIG2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EIG2" t="n">
+      <c r="EIH2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="EIH2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EII2" t="n">
         <v>0.1</v>
       </c>
       <c r="EIJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EIK2" t="n">
         <v>0.41</v>
       </c>
-      <c r="EIK2" t="n">
+      <c r="EIL2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIL2" t="n">
+      <c r="EIM2" t="n">
         <v>0.41</v>
       </c>
-      <c r="EIM2" t="n">
+      <c r="EIN2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EIN2" t="n">
+      <c r="EIO2" t="n">
         <v>0.08</v>
       </c>
-      <c r="EIO2" t="n">
+      <c r="EIP2" t="n">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="EIP2" t="n">
-        <v>0.21</v>
       </c>
       <c r="EIQ2" t="n">
         <v>0.21</v>
       </c>
       <c r="EIR2" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="EIS2" t="n">
         <v>0.13</v>
@@ -31055,49 +31060,49 @@
         <v>0.13</v>
       </c>
       <c r="EIU2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EIV2" t="n">
         <v>0.51</v>
       </c>
-      <c r="EIV2" t="n">
+      <c r="EIW2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EIW2" t="n">
+      <c r="EIX2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EIX2" t="n">
+      <c r="EIY2" t="n">
         <v>0.28</v>
-      </c>
-      <c r="EIY2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EIZ2" t="n">
         <v>0.15</v>
       </c>
       <c r="EJA2" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="EJB2" t="n">
         <v>0.46</v>
       </c>
       <c r="EJC2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="EJD2" t="n">
         <v>0.52</v>
       </c>
-      <c r="EJD2" t="n">
+      <c r="EJE2" t="n">
         <v>0.22</v>
       </c>
-      <c r="EJE2" t="n">
+      <c r="EJF2" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="EJF2" t="n">
+      <c r="EJG2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EJG2" t="n">
+      <c r="EJH2" t="n">
         <v>0.22</v>
       </c>
-      <c r="EJH2" t="n">
+      <c r="EJI2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="EJI2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EJJ2" t="n">
         <v>0.11</v>
@@ -31106,10 +31111,10 @@
         <v>0.11</v>
       </c>
       <c r="EJL2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EJM2" t="n">
         <v>0.22</v>
-      </c>
-      <c r="EJM2" t="n">
-        <v>0.08</v>
       </c>
       <c r="EJN2" t="n">
         <v>0.08</v>
@@ -31127,7 +31132,7 @@
         <v>0.08</v>
       </c>
       <c r="EJS2" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="EJT2" t="n">
         <v>0.12</v>
@@ -31166,7 +31171,7 @@
         <v>0.12</v>
       </c>
       <c r="EKF2" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="EKG2" t="n">
         <v>0.09</v>
@@ -31181,19 +31186,19 @@
         <v>0.09</v>
       </c>
       <c r="EKK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EKL2" t="n">
         <v>0.52</v>
       </c>
-      <c r="EKL2" t="n">
+      <c r="EKM2" t="n">
         <v>0.43</v>
       </c>
-      <c r="EKM2" t="n">
+      <c r="EKN2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EKN2" t="n">
+      <c r="EKO2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="EKO2" t="n">
-        <v>0.14</v>
       </c>
       <c r="EKP2" t="n">
         <v>0.14</v>
@@ -31202,16 +31207,16 @@
         <v>0.14</v>
       </c>
       <c r="EKR2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EKS2" t="n">
         <v>0.64</v>
-      </c>
-      <c r="EKS2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EKT2" t="n">
         <v>0.15</v>
       </c>
       <c r="EKU2" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="EKV2" t="n">
         <v>0.13</v>
@@ -31223,19 +31228,19 @@
         <v>0.13</v>
       </c>
       <c r="EKY2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="EKZ2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EKZ2" t="n">
-        <v>0.32</v>
-      </c>
       <c r="ELA2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="ELB2" t="n">
         <v>0.16</v>
       </c>
-      <c r="ELB2" t="n">
+      <c r="ELC2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ELC2" t="n">
-        <v>0.16</v>
       </c>
       <c r="ELD2" t="n">
         <v>0.16</v>
@@ -31244,58 +31249,58 @@
         <v>0.16</v>
       </c>
       <c r="ELF2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ELG2" t="n">
         <v>0.29</v>
       </c>
-      <c r="ELG2" t="n">
+      <c r="ELH2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELH2" t="n">
+      <c r="ELI2" t="n">
         <v>0.29</v>
-      </c>
-      <c r="ELI2" t="n">
-        <v>0.38</v>
       </c>
       <c r="ELJ2" t="n">
         <v>0.38</v>
       </c>
       <c r="ELK2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="ELL2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ELL2" t="n">
+      <c r="ELM2" t="n">
         <v>0.71</v>
       </c>
-      <c r="ELM2" t="n">
+      <c r="ELN2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ELN2" t="n">
+      <c r="ELO2" t="n">
         <v>0.97</v>
       </c>
-      <c r="ELO2" t="n">
+      <c r="ELP2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ELP2" t="n">
+      <c r="ELQ2" t="n">
         <v>0.32</v>
       </c>
-      <c r="ELQ2" t="n">
+      <c r="ELR2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ELR2" t="n">
+      <c r="ELS2" t="n">
         <v>0.19</v>
       </c>
-      <c r="ELS2" t="n">
+      <c r="ELT2" t="n">
         <v>0.18</v>
       </c>
-      <c r="ELT2" t="n">
+      <c r="ELU2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ELU2" t="n">
+      <c r="ELV2" t="n">
         <v>0.22</v>
       </c>
-      <c r="ELV2" t="n">
+      <c r="ELW2" t="n">
         <v>0.2</v>
-      </c>
-      <c r="ELW2" t="n">
-        <v>0.22</v>
       </c>
       <c r="ELX2" t="n">
         <v>0.22</v>
@@ -31304,94 +31309,94 @@
         <v>0.22</v>
       </c>
       <c r="ELZ2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="EMA2" t="n">
         <v>0.28</v>
       </c>
-      <c r="EMA2" t="n">
+      <c r="EMB2" t="n">
         <v>0.14</v>
-      </c>
-      <c r="EMB2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EMC2" t="n">
         <v>0.15</v>
       </c>
       <c r="EMD2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EME2" t="n">
         <v>1.12</v>
       </c>
-      <c r="EME2" t="n">
+      <c r="EMF2" t="n">
         <v>0.14</v>
-      </c>
-      <c r="EMF2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EMG2" t="n">
         <v>0.15</v>
       </c>
       <c r="EMH2" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="EMI2" t="n">
         <v>0.1</v>
       </c>
       <c r="EMJ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EMK2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EMK2" t="n">
+      <c r="EML2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EML2" t="n">
+      <c r="EMM2" t="n">
         <v>0.62</v>
       </c>
-      <c r="EMM2" t="n">
+      <c r="EMN2" t="n">
         <v>0.29</v>
       </c>
-      <c r="EMN2" t="n">
+      <c r="EMO2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EMO2" t="n">
+      <c r="EMP2" t="n">
         <v>0.28</v>
       </c>
-      <c r="EMP2" t="n">
+      <c r="EMQ2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EMQ2" t="n">
+      <c r="EMR2" t="n">
         <v>0.15</v>
-      </c>
-      <c r="EMR2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EMS2" t="n">
         <v>0.1</v>
       </c>
       <c r="EMT2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EMU2" t="n">
         <v>0.25</v>
       </c>
-      <c r="EMU2" t="n">
+      <c r="EMV2" t="n">
         <v>0.18</v>
       </c>
-      <c r="EMV2" t="n">
-        <v>0.11</v>
-      </c>
       <c r="EMW2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="EMX2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EMY2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EMY2" t="n">
+      <c r="EMZ2" t="n">
         <v>0.31</v>
-      </c>
-      <c r="EMZ2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ENA2" t="n">
         <v>0.15</v>
       </c>
       <c r="ENB2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="ENC2" t="n">
         <v>1.16</v>
-      </c>
-      <c r="ENC2" t="n">
-        <v>0.2</v>
       </c>
       <c r="END2" t="n">
         <v>0.2</v>
@@ -31400,16 +31405,16 @@
         <v>0.2</v>
       </c>
       <c r="ENF2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ENG2" t="n">
         <v>0.09</v>
       </c>
-      <c r="ENG2" t="n">
+      <c r="ENH2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ENH2" t="n">
+      <c r="ENI2" t="n">
         <v>0.58</v>
-      </c>
-      <c r="ENI2" t="n">
-        <v>0.12</v>
       </c>
       <c r="ENJ2" t="n">
         <v>0.12</v>
@@ -31427,13 +31432,13 @@
         <v>0.12</v>
       </c>
       <c r="ENO2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="ENP2" t="n">
         <v>0.71</v>
       </c>
-      <c r="ENP2" t="n">
+      <c r="ENQ2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="ENQ2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ENR2" t="n">
         <v>0.1</v>
@@ -31448,16 +31453,16 @@
         <v>0.1</v>
       </c>
       <c r="ENV2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ENW2" t="n">
         <v>0.64</v>
       </c>
-      <c r="ENW2" t="n">
+      <c r="ENX2" t="n">
         <v>0.74</v>
       </c>
-      <c r="ENX2" t="n">
+      <c r="ENY2" t="n">
         <v>0.62</v>
-      </c>
-      <c r="ENY2" t="n">
-        <v>0.14</v>
       </c>
       <c r="ENZ2" t="n">
         <v>0.14</v>
@@ -31466,7 +31471,7 @@
         <v>0.14</v>
       </c>
       <c r="EOB2" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="EOC2" t="n">
         <v>0.18</v>
@@ -31475,31 +31480,31 @@
         <v>0.18</v>
       </c>
       <c r="EOE2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="EOF2" t="n">
         <v>0.12</v>
       </c>
-      <c r="EOF2" t="n">
+      <c r="EOG2" t="n">
         <v>0.16</v>
       </c>
-      <c r="EOG2" t="n">
+      <c r="EOH2" t="n">
         <v>0.32</v>
       </c>
-      <c r="EOH2" t="n">
+      <c r="EOI2" t="n">
         <v>0.37</v>
       </c>
-      <c r="EOI2" t="n">
+      <c r="EOJ2" t="n">
         <v>0.44</v>
       </c>
-      <c r="EOJ2" t="n">
+      <c r="EOK2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EOK2" t="n">
-        <v>0.17</v>
       </c>
       <c r="EOL2" t="n">
         <v>0.17</v>
       </c>
       <c r="EOM2" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="EON2" t="n">
         <v>0.14</v>
@@ -31520,7 +31525,7 @@
         <v>0.14</v>
       </c>
       <c r="EOT2" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="EOU2" t="n">
         <v>0.12</v>
@@ -31532,28 +31537,28 @@
         <v>0.12</v>
       </c>
       <c r="EOX2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EOY2" t="n">
         <v>0.24</v>
-      </c>
-      <c r="EOY2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EOZ2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPA2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPB2" t="n">
         <v>0.23</v>
-      </c>
-      <c r="EPB2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EPC2" t="n">
         <v>0.12</v>
       </c>
       <c r="EPD2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPE2" t="n">
         <v>0.35</v>
-      </c>
-      <c r="EPE2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EPF2" t="n">
         <v>0.12</v>
@@ -31571,91 +31576,91 @@
         <v>0.12</v>
       </c>
       <c r="EPK2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EPL2" t="n">
         <v>0.24</v>
       </c>
-      <c r="EPL2" t="n">
+      <c r="EPM2" t="n">
         <v>0.72</v>
       </c>
-      <c r="EPM2" t="n">
+      <c r="EPN2" t="n">
         <v>0.17</v>
-      </c>
-      <c r="EPN2" t="n">
-        <v>0.15</v>
       </c>
       <c r="EPO2" t="n">
         <v>0.15</v>
       </c>
       <c r="EPP2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="EPQ2" t="n">
         <v>0.77</v>
       </c>
-      <c r="EPQ2" t="n">
+      <c r="EPR2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EPR2" t="n">
+      <c r="EPS2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="EPS2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EPT2" t="n">
         <v>0.1</v>
       </c>
       <c r="EPU2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EPV2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="EPV2" t="n">
-        <v>0.23</v>
       </c>
       <c r="EPW2" t="n">
         <v>0.23</v>
       </c>
       <c r="EPX2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="EPY2" t="n">
         <v>0.46</v>
       </c>
-      <c r="EPY2" t="n">
+      <c r="EPZ2" t="n">
         <v>0.51</v>
       </c>
-      <c r="EPZ2" t="n">
+      <c r="EQA2" t="n">
         <v>0.41</v>
-      </c>
-      <c r="EQA2" t="n">
-        <v>0.09</v>
       </c>
       <c r="EQB2" t="n">
         <v>0.09</v>
       </c>
       <c r="EQC2" t="n">
-        <v>1.03</v>
+        <v>0.09</v>
       </c>
       <c r="EQD2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="EQE2" t="n">
         <v>0.33</v>
       </c>
-      <c r="EQE2" t="n">
+      <c r="EQF2" t="n">
         <v>0.16</v>
-      </c>
-      <c r="EQF2" t="n">
-        <v>0.17</v>
       </c>
       <c r="EQG2" t="n">
         <v>0.17</v>
       </c>
       <c r="EQH2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="EQI2" t="n">
         <v>0.32</v>
       </c>
-      <c r="EQI2" t="n">
+      <c r="EQJ2" t="n">
         <v>0.17</v>
       </c>
-      <c r="EQJ2" t="n">
+      <c r="EQK2" t="n">
         <v>0.72</v>
       </c>
-      <c r="EQK2" t="n">
+      <c r="EQL2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EQL2" t="n">
+      <c r="EQM2" t="n">
         <v>0.18</v>
-      </c>
-      <c r="EQM2" t="n">
-        <v>0.11</v>
       </c>
       <c r="EQN2" t="n">
         <v>0.11</v>
@@ -31664,34 +31669,34 @@
         <v>0.11</v>
       </c>
       <c r="EQP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="EQQ2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EQQ2" t="n">
+      <c r="EQR2" t="n">
         <v>0.55</v>
       </c>
-      <c r="EQR2" t="n">
+      <c r="EQS2" t="n">
         <v>0.14</v>
       </c>
-      <c r="EQS2" t="n">
+      <c r="EQT2" t="n">
         <v>0.23</v>
       </c>
-      <c r="EQT2" t="n">
+      <c r="EQU2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EQU2" t="n">
+      <c r="EQV2" t="n">
         <v>0.42</v>
       </c>
-      <c r="EQV2" t="n">
+      <c r="EQW2" t="n">
         <v>0.45</v>
       </c>
-      <c r="EQW2" t="n">
-        <v>0.52</v>
-      </c>
       <c r="EQX2" t="n">
-        <v>0.17</v>
+        <v>0.54</v>
       </c>
       <c r="EQY2" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="EQZ2" t="n">
         <v>0.11</v>
@@ -31703,16 +31708,16 @@
         <v>0.11</v>
       </c>
       <c r="ERC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ERD2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ERD2" t="n">
+      <c r="ERE2" t="n">
         <v>0.43</v>
       </c>
-      <c r="ERE2" t="n">
+      <c r="ERF2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ERF2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ERG2" t="n">
         <v>0.1</v>
@@ -31721,7 +31726,7 @@
         <v>0.1</v>
       </c>
       <c r="ERI2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="ERJ2" t="n">
         <v>0.09</v>
@@ -31739,43 +31744,43 @@
         <v>0.09</v>
       </c>
       <c r="ERO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ERP2" t="n">
         <v>0.16</v>
       </c>
-      <c r="ERP2" t="n">
+      <c r="ERQ2" t="n">
         <v>0.27</v>
       </c>
-      <c r="ERQ2" t="n">
+      <c r="ERR2" t="n">
         <v>0.09</v>
-      </c>
-      <c r="ERR2" t="n">
-        <v>0.11</v>
       </c>
       <c r="ERS2" t="n">
         <v>0.11</v>
       </c>
       <c r="ERT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="ERU2" t="n">
         <v>0.54</v>
       </c>
-      <c r="ERU2" t="n">
+      <c r="ERV2" t="n">
         <v>0.18</v>
       </c>
-      <c r="ERV2" t="n">
+      <c r="ERW2" t="n">
         <v>0.36</v>
       </c>
-      <c r="ERW2" t="n">
+      <c r="ERX2" t="n">
         <v>0.67</v>
-      </c>
-      <c r="ERX2" t="n">
-        <v>0.17</v>
       </c>
       <c r="ERY2" t="n">
         <v>0.17</v>
       </c>
       <c r="ERZ2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="ESA2" t="n">
         <v>0.38</v>
-      </c>
-      <c r="ESA2" t="n">
-        <v>0.13</v>
       </c>
       <c r="ESB2" t="n">
         <v>0.13</v>
@@ -31784,43 +31789,43 @@
         <v>0.13</v>
       </c>
       <c r="ESD2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ESE2" t="n">
         <v>0.25</v>
       </c>
-      <c r="ESE2" t="n">
+      <c r="ESF2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESF2" t="n">
+      <c r="ESG2" t="n">
         <v>0.25</v>
       </c>
-      <c r="ESG2" t="n">
+      <c r="ESH2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ESH2" t="n">
-        <v>0.25</v>
       </c>
       <c r="ESI2" t="n">
         <v>0.25</v>
       </c>
       <c r="ESJ2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="ESK2" t="n">
         <v>0.13</v>
       </c>
-      <c r="ESK2" t="n">
+      <c r="ESL2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESL2" t="n">
+      <c r="ESM2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ESM2" t="n">
+      <c r="ESN2" t="n">
         <v>0.63</v>
       </c>
-      <c r="ESN2" t="n">
+      <c r="ESO2" t="n">
         <v>0.5</v>
       </c>
-      <c r="ESO2" t="n">
+      <c r="ESP2" t="n">
         <v>0.11</v>
-      </c>
-      <c r="ESP2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ESQ2" t="n">
         <v>0.1</v>
@@ -31832,25 +31837,25 @@
         <v>0.1</v>
       </c>
       <c r="EST2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ESU2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ESU2" t="n">
+      <c r="ESV2" t="n">
         <v>0.49</v>
       </c>
-      <c r="ESV2" t="n">
+      <c r="ESW2" t="n">
         <v>0.59</v>
       </c>
-      <c r="ESW2" t="n">
+      <c r="ESX2" t="n">
         <v>0.1</v>
       </c>
-      <c r="ESX2" t="n">
+      <c r="ESY2" t="n">
         <v>0.2</v>
       </c>
-      <c r="ESY2" t="n">
+      <c r="ESZ2" t="n">
         <v>0.13</v>
-      </c>
-      <c r="ESZ2" t="n">
-        <v>0.1</v>
       </c>
       <c r="ETA2" t="n">
         <v>0.1</v>
@@ -31874,10 +31879,10 @@
         <v>0.1</v>
       </c>
       <c r="ETH2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="ETI2" t="n">
         <v>0.44</v>
-      </c>
-      <c r="ETI2" t="n">
-        <v>0.15</v>
       </c>
       <c r="ETJ2" t="n">
         <v>0.15</v>
@@ -31889,19 +31894,19 @@
         <v>0.15</v>
       </c>
       <c r="ETM2" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="ETN2" t="n">
         <v>0.08</v>
       </c>
       <c r="ETO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ETP2" t="n">
         <v>0.17</v>
       </c>
-      <c r="ETP2" t="n">
+      <c r="ETQ2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="ETQ2" t="n">
-        <v>0.2</v>
       </c>
       <c r="ETR2" t="n">
         <v>0.2</v>
@@ -31922,66 +31927,69 @@
         <v>0.2</v>
       </c>
       <c r="ETX2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="ETY2" t="n">
         <v>0.27</v>
       </c>
-      <c r="ETY2" t="n">
+      <c r="ETZ2" t="n">
         <v>0.41</v>
       </c>
-      <c r="ETZ2" t="n">
+      <c r="EUA2" t="n">
         <v>0.21</v>
-      </c>
-      <c r="EUA2" t="n">
-        <v>0.1</v>
       </c>
       <c r="EUB2" t="n">
         <v>0.1</v>
       </c>
       <c r="EUC2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="EUD2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUD2" t="n">
+      <c r="EUE2" t="n">
         <v>0.1</v>
       </c>
-      <c r="EUE2" t="n">
+      <c r="EUF2" t="n">
         <v>0.21</v>
       </c>
-      <c r="EUF2" t="n">
+      <c r="EUG2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="EUG2" t="n">
-        <v>0.12</v>
       </c>
       <c r="EUH2" t="n">
         <v>0.12</v>
       </c>
       <c r="EUI2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="EUJ2" t="n">
         <v>0.15</v>
       </c>
-      <c r="EUJ2" t="n">
+      <c r="EUK2" t="n">
         <v>0.13</v>
       </c>
-      <c r="EUK2" t="n">
-        <v>0.39</v>
-      </c>
       <c r="EUL2" t="n">
-        <v>0.26</v>
+        <v>0.38</v>
       </c>
       <c r="EUM2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EUN2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EUO2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="EUP2" t="n">
         <v>0.11</v>
       </c>
-      <c r="EUP2" t="n">
+      <c r="EUQ2" t="n">
         <v>0.55</v>
       </c>
-      <c r="EUQ2" t="n">
+      <c r="EUR2" t="n">
         <v>0.33</v>
       </c>
-      <c r="EUR2" t="n">
+      <c r="EUS2" t="n">
         <v>0.11</v>
       </c>
     </row>
